--- a/Document/实验结果总结表.xlsx
+++ b/Document/实验结果总结表.xlsx
@@ -834,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FD8591-34FA-9943-BE5B-67855F8538FD}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1021,6 +1021,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
+    <row r="16" spans="1:7" ht="251" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A15:E15"/>
